--- a/Person/李雪纯/用户故事/一封-用户故事-lxc.xlsx
+++ b/Person/李雪纯/用户故事/一封-用户故事-lxc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\software-process-homework\Person\李雪纯\用户故事\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF069D6A-BFEE-4D5D-8365-175BEC829163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49776CA-C0BF-42E6-BB92-46CCCFE8FE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D3C41BE-A26B-47A4-9758-395CF23BF031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +30,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Luc Segers</author>
+  </authors>
+  <commentList>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{0497D613-1206-4CB0-9D49-B690D0F5ABD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+total amount of estimated hours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{270EFDA0-9218-43DF-87C7-0A96D6E43948}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+total amount of estimated hours</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>引用编号</t>
   </si>
@@ -171,6 +229,9 @@
   <si>
     <t>作为一个写信的人，希望通过点击分享界面找到自己分享出去的界面</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -184,7 +245,7 @@
     <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
     <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +306,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -296,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -513,6 +595,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,7 +676,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,18 +741,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Background" xfId="2" xr:uid="{4D32D2D4-F279-49DB-83FF-84AC717573DC}"/>
@@ -626,7 +784,13 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{7C91B754-F3D8-4558-ACC6-FEC73BE6BDDA}"/>
     <cellStyle name="货币 2" xfId="9" xr:uid="{65B1E55B-80D1-4A2A-98EB-98775DFBC468}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -935,11 +1099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ECC96-6BDD-47CC-9009-D5731A9882AD}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ECC96-6BDD-47CC-9009-D5731A9882AD}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -976,7 +1140,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -1032,13 +1196,13 @@
       <c r="H2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="26">
         <v>6</v>
       </c>
-      <c r="J2" s="24">
-        <v>98</v>
-      </c>
-      <c r="K2" s="26"/>
+      <c r="J2" s="27">
+        <v>93</v>
+      </c>
+      <c r="K2" s="24"/>
       <c r="L2" s="18"/>
       <c r="M2" s="17">
         <v>6</v>
@@ -1073,16 +1237,16 @@
       <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="25">
-        <v>4</v>
-      </c>
-      <c r="J3" s="13">
-        <v>97</v>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
+        <v>90</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -1111,16 +1275,16 @@
       <c r="H4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="25">
-        <v>2</v>
-      </c>
-      <c r="J4" s="13">
-        <v>96</v>
+      <c r="I4" s="26">
+        <v>4</v>
+      </c>
+      <c r="J4" s="28">
+        <v>92</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -1149,16 +1313,16 @@
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="25">
-        <v>2</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28">
         <v>95</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1187,16 +1351,16 @@
       <c r="H6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="25">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13">
-        <v>94</v>
+      <c r="I6" s="26">
+        <v>3</v>
+      </c>
+      <c r="J6" s="28">
+        <v>91</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -1225,16 +1389,16 @@
       <c r="H7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="25">
-        <v>4</v>
-      </c>
-      <c r="J7" s="13">
-        <v>93</v>
+      <c r="I7" s="26">
+        <v>2</v>
+      </c>
+      <c r="J7" s="28">
+        <v>90</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -1263,16 +1427,16 @@
       <c r="H8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="25">
-        <v>4</v>
-      </c>
-      <c r="J8" s="13">
-        <v>92</v>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="J8" s="27">
+        <v>80</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="12"/>
     </row>
@@ -1301,16 +1465,16 @@
       <c r="H9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="25">
-        <v>4</v>
-      </c>
-      <c r="J9" s="13">
-        <v>91</v>
+      <c r="I9" s="26">
+        <v>2</v>
+      </c>
+      <c r="J9" s="27">
+        <v>85</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" s="12"/>
     </row>
@@ -1339,20 +1503,20 @@
       <c r="H10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="25">
-        <v>4</v>
-      </c>
-      <c r="J10" s="13">
-        <v>90</v>
+      <c r="I10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="27">
+        <v>85</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1377,22 +1541,64 @@
       <c r="H11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="25">
-        <v>4</v>
-      </c>
-      <c r="J11" s="13">
-        <v>89</v>
+      <c r="I11" s="26">
+        <v>2</v>
+      </c>
+      <c r="J11" s="27">
+        <v>80</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="35" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30">
+        <v>21</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="I2:J11 I13:J13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Person/李雪纯/用户故事/一封-用户故事-lxc.xlsx
+++ b/Person/李雪纯/用户故事/一封-用户故事-lxc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\software-process-homework\Person\李雪纯\用户故事\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49776CA-C0BF-42E6-BB92-46CCCFE8FE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9025B148-5AAB-4EF2-B84B-F42C00E4EC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D3C41BE-A26B-47A4-9758-395CF23BF031}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>引用编号</t>
   </si>
@@ -151,14 +151,6 @@
     <t>Not Done</t>
   </si>
   <si>
-    <t>作为一个偶尔读书书友，我希望能够有一个最热图书推荐，以便于减轻我选书的困惑。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个写信的人，希望收到别人的来信</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>信箱收信</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -179,10 +171,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>最热图书推荐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>我的 信息更改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -199,18 +187,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>收藏夹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>作为一个写信的人，希望可以通过收藏夹找到所有收藏的页面</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>回收站</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>作为一个写信的人，希望可以通过回收站找到最近删除的信件</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -223,26 +203,82 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>分享</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>作为一个写信的人，希望通过点击分享界面找到自己分享出去的界面</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>作为家长，我希望有一个人声选择功能，有值得选择的男女声，供我挑选发现孩子喜欢的声音，获得更好的体验</t>
+  </si>
+  <si>
+    <t>音频分类</t>
+  </si>
+  <si>
+    <t>人声选择</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速搜索音频</t>
+  </si>
+  <si>
+    <t>作为一个家长，我希望可以通过故事或书籍的名称快速搜索到我想要的音频</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个用户，我希望能够有一个音频分类，方便我能找到想要的类型音频</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频收藏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为用户，我希望可以收藏一些合适的音乐，以便下次使用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为用户，我希望可以下载音频，可以根据自己的喜好下载音频</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>做为一个写信的人希望可以通过搜索，快速搜到来信</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个写信的人，希望可以通过一个界面，反馈给客服我遇到的问题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助与反馈功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏夹功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收站功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
     <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
@@ -378,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -445,19 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -465,36 +488,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -532,17 +525,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -584,21 +566,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -662,13 +629,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="13">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="13" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="9" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -676,7 +643,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,20 +654,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,50 +694,40 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Background" xfId="2" xr:uid="{4D32D2D4-F279-49DB-83FF-84AC717573DC}"/>
@@ -784,7 +741,12 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{7C91B754-F3D8-4558-ACC6-FEC73BE6BDDA}"/>
     <cellStyle name="货币 2" xfId="9" xr:uid="{65B1E55B-80D1-4A2A-98EB-98775DFBC468}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -1100,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ECC96-6BDD-47CC-9009-D5731A9882AD}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1102,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -1171,46 +1133,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="26">
-        <v>6</v>
-      </c>
-      <c r="J2" s="27">
-        <v>93</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="18"/>
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <v>90</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="17">
-        <v>6</v>
-      </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1228,25 +1187,25 @@
       <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="26">
-        <v>1</v>
-      </c>
-      <c r="J3" s="27">
-        <v>90</v>
+      <c r="I3" s="20">
+        <v>4</v>
+      </c>
+      <c r="J3" s="22">
+        <v>92</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -1266,25 +1225,25 @@
       <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="26">
-        <v>4</v>
-      </c>
-      <c r="J4" s="28">
-        <v>92</v>
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>95</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -1302,27 +1261,27 @@
         <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="26">
-        <v>1</v>
-      </c>
-      <c r="J5" s="28">
-        <v>95</v>
+      <c r="I5" s="20">
+        <v>3</v>
+      </c>
+      <c r="J5" s="22">
+        <v>91</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1340,27 +1299,27 @@
         <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="26">
-        <v>3</v>
-      </c>
-      <c r="J6" s="28">
-        <v>91</v>
+      <c r="I6" s="20">
+        <v>2</v>
+      </c>
+      <c r="J6" s="22">
+        <v>90</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -1378,27 +1337,27 @@
         <v>17</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="26">
-        <v>2</v>
-      </c>
-      <c r="J7" s="28">
-        <v>90</v>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21">
+        <v>80</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -1416,21 +1375,21 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="26">
-        <v>1</v>
-      </c>
-      <c r="J8" s="27">
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="J8" s="21">
         <v>80</v>
       </c>
       <c r="K8" s="12"/>
@@ -1454,21 +1413,21 @@
         <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="20">
         <v>2</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="21">
         <v>85</v>
       </c>
       <c r="K9" s="12"/>
@@ -1492,21 +1451,21 @@
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="20">
         <v>0.5</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="21">
         <v>85</v>
       </c>
       <c r="K10" s="12"/>
@@ -1530,21 +1489,21 @@
         <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="20">
         <v>2</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="21">
         <v>80</v>
       </c>
       <c r="K11" s="12"/>
@@ -1554,26 +1513,26 @@
       </c>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:17" s="35" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="30">
-        <v>21</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="34"/>
+    <row r="12" spans="1:17" s="29" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="24">
+        <v>22</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I13" s="14"/>
@@ -1584,17 +1543,58 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
       <c r="I15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
       <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="I2:J11 I13:J13">
+  <conditionalFormatting sqref="I13:J13 I2:J7 I9:J11">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G2="WITHDRAWN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:J8">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2="WITHDRAWN"</formula>
+      <formula>$G8="WITHDRAWN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
